--- a/V2/Sound_Box/Bill of Materials.xlsx
+++ b/V2/Sound_Box/Bill of Materials.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Part</t>
   </si>
@@ -39,9 +38,6 @@
     <t>Seller</t>
   </si>
   <si>
-    <t>Size</t>
-  </si>
-  <si>
     <t>Price/Unit</t>
   </si>
   <si>
@@ -82,6 +78,24 @@
   </si>
   <si>
     <t>https://www.homedepot.com/p/3-4-in-x-4-ft-x-8-ft-MDF-Panel-D11612490970000/304325742</t>
+  </si>
+  <si>
+    <t>4.8mm screw holes</t>
+  </si>
+  <si>
+    <t>#9 screws</t>
+  </si>
+  <si>
+    <t>#9 screws again?</t>
+  </si>
+  <si>
+    <t>3/4 in.x 2 ft. x 4 ft. MDF Panel</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Medium-Density-Fiberboard-Common-3-4-in-x-2-ft-x-4-ft-Actual-0-734-in-x-23-75-in-x-47-75-in-219743/202093815</t>
+  </si>
+  <si>
+    <t>Boxes</t>
   </si>
 </sst>
 </file>
@@ -682,32 +696,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="101.42578125" customWidth="1"/>
+    <col min="5" max="5" width="135.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -716,9 +731,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -726,134 +741,195 @@
       <c r="E2" s="19"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
       <c r="C3" s="5">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="D3" s="5">
         <v>45.61</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="11">
-        <f>C3*D3</f>
-        <v>57.012500000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+        <f>C3*D3*B3</f>
+        <v>182.44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5">
+        <f>B3</f>
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="5">
+        <v>19.2</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="11">
+        <f t="shared" ref="F4:F9" si="0">C4*D4*B4</f>
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="B6" s="5">
+        <f>B3</f>
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>9.7799999999999994</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="F6" s="11">
+        <f t="shared" si="0"/>
+        <v>78.239999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="11">
-        <f>C5*D5</f>
-        <v>19.559999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5">
+      <c r="B7" s="5">
+        <f>B6</f>
         <v>4</v>
       </c>
-      <c r="D6" s="5">
-        <v>7.99</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="11">
-        <f>C6*D6</f>
-        <v>31.96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5"/>
       <c r="C7" s="5">
         <v>4</v>
       </c>
       <c r="D7" s="5">
+        <v>7.99</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="0"/>
+        <v>127.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5">
+        <f>B7</f>
+        <v>4</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="0"/>
+        <v>9.2799999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="11">
-        <f>C7*D7</f>
-        <v>2.3199999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="B9" s="14">
+        <f>B8</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14">
+        <v>4.28</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14">
-        <v>1</v>
-      </c>
-      <c r="D8" s="14">
-        <v>4.28</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="F9" s="16">
+        <f t="shared" si="0"/>
+        <v>17.12</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="16">
-        <f>C8*D8</f>
-        <v>4.28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="6" t="s">
+      <c r="I9" s="7">
+        <f>SUM(F:F)</f>
+        <v>453.31999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
         <v>16</v>
       </c>
-      <c r="F10" s="7">
-        <f ca="1">SUM(F2:F10)</f>
-        <v>115.13249999999999</v>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E6" r:id="rId2"/>
-    <hyperlink ref="E7" r:id="rId3"/>
-    <hyperlink ref="E8" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId1"/>
+    <hyperlink ref="E7" r:id="rId2"/>
+    <hyperlink ref="E8" r:id="rId3"/>
+    <hyperlink ref="E9" r:id="rId4"/>
     <hyperlink ref="E3" r:id="rId5"/>
+    <hyperlink ref="E4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>